--- a/Excel_Data/Левый.xlsx
+++ b/Excel_Data/Левый.xlsx
@@ -8,12 +8,12 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -35,12 +35,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
+  <fonts count="16">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -65,94 +65,89 @@
       <b val="true"/>
       <sz val="24"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
       <sz val="10"/>
       <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -206,7 +201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -229,6 +224,13 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -303,17 +305,13 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -409,17 +407,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -431,33 +427,32 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="0" t="n">
         <v>1234567890</v>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="0" t="n">
         <v>1234567890</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="0" t="n">
         <v>2345678901</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="0" t="n">
         <v>2345678901</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="0" t="n">
         <v>9876543211</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="0" t="n">
         <v>9876543211</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
